--- a/LW Done.xlsx
+++ b/LW Done.xlsx
@@ -9,7 +9,7 @@
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="19200" windowHeight="11595"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="19200" windowHeight="11595" activeTab="1"/>
   </bookViews>
   <sheets>
     <sheet name="1168" sheetId="1" r:id="rId1"/>
@@ -645,8 +645,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:N140"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A130" workbookViewId="0">
-      <selection activeCell="G128" sqref="G128"/>
+    <sheetView topLeftCell="A100" workbookViewId="0">
+      <selection activeCell="H140" sqref="H140"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -4354,7 +4354,7 @@
         <v>1</v>
       </c>
       <c r="H89" s="7">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="I89" s="7" t="s">
         <v>24</v>
@@ -4438,7 +4438,7 @@
         <v>1</v>
       </c>
       <c r="H91" s="7">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="I91" s="7" t="s">
         <v>24</v>
@@ -4480,7 +4480,7 @@
         <v>1</v>
       </c>
       <c r="H92" s="7">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="I92" s="7" t="s">
         <v>24</v>
@@ -4522,7 +4522,7 @@
         <v>1</v>
       </c>
       <c r="H93" s="7">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="I93" s="7" t="s">
         <v>24</v>
@@ -4564,7 +4564,7 @@
         <v>1</v>
       </c>
       <c r="H94" s="7">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="I94" s="7" t="s">
         <v>24</v>
@@ -4774,7 +4774,7 @@
         <v>1</v>
       </c>
       <c r="H99" s="7">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="I99" s="7" t="s">
         <v>24</v>
@@ -5572,7 +5572,7 @@
         <v>1</v>
       </c>
       <c r="H118" s="7">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="I118" s="7" t="s">
         <v>24</v>
@@ -5614,7 +5614,7 @@
         <v>1</v>
       </c>
       <c r="H119" s="7">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="I119" s="7" t="s">
         <v>24</v>
@@ -6328,7 +6328,7 @@
         <v>1</v>
       </c>
       <c r="H136" s="7">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="I136" s="7" t="s">
         <v>24</v>
@@ -6412,7 +6412,7 @@
         <v>1</v>
       </c>
       <c r="H138" s="7">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="I138" s="7" t="s">
         <v>24</v>
@@ -6496,7 +6496,7 @@
         <v>1</v>
       </c>
       <c r="H140" s="11">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="I140" s="11" t="s">
         <v>24</v>
@@ -6524,8 +6524,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:N155"/>
   <sheetViews>
-    <sheetView topLeftCell="A151" workbookViewId="0">
-      <selection activeCell="D33" sqref="D33"/>
+    <sheetView tabSelected="1" topLeftCell="A19" workbookViewId="0">
+      <selection activeCell="P39" sqref="P39"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -8637,7 +8637,7 @@
         <v>1</v>
       </c>
       <c r="H51" s="7">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="I51" s="7" t="s">
         <v>27</v>
@@ -8679,7 +8679,7 @@
         <v>1</v>
       </c>
       <c r="H52" s="7">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="I52" s="7" t="s">
         <v>27</v>
@@ -8721,7 +8721,7 @@
         <v>1</v>
       </c>
       <c r="H53" s="7">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="I53" s="7" t="s">
         <v>27</v>
@@ -8763,7 +8763,7 @@
         <v>1</v>
       </c>
       <c r="H54" s="11">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="I54" s="11" t="s">
         <v>27</v>
@@ -9687,7 +9687,7 @@
         <v>1</v>
       </c>
       <c r="H76" s="7">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="I76" s="7" t="s">
         <v>24</v>
@@ -9729,7 +9729,7 @@
         <v>1</v>
       </c>
       <c r="H77" s="7">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="I77" s="7" t="s">
         <v>24</v>
@@ -9774,7 +9774,7 @@
         <v>1</v>
       </c>
       <c r="I78" s="7" t="s">
-        <v>24</v>
+        <v>27</v>
       </c>
       <c r="J78" s="7" t="s">
         <v>17</v>
@@ -9813,7 +9813,7 @@
         <v>1</v>
       </c>
       <c r="H79" s="7">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="I79" s="7" t="s">
         <v>24</v>
@@ -9855,7 +9855,7 @@
         <v>1</v>
       </c>
       <c r="H80" s="7">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="I80" s="7" t="s">
         <v>24</v>
@@ -10107,7 +10107,7 @@
         <v>1</v>
       </c>
       <c r="H86" s="7">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="I86" s="7" t="s">
         <v>24</v>
@@ -10149,7 +10149,7 @@
         <v>1</v>
       </c>
       <c r="H87" s="7">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="I87" s="7" t="s">
         <v>24</v>
@@ -10191,7 +10191,7 @@
         <v>1</v>
       </c>
       <c r="H88" s="7">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="I88" s="7" t="s">
         <v>24</v>
@@ -10527,7 +10527,7 @@
         <v>1</v>
       </c>
       <c r="H96" s="7">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="I96" s="7" t="s">
         <v>24</v>
@@ -10611,7 +10611,7 @@
         <v>1</v>
       </c>
       <c r="H98" s="7">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="I98" s="7" t="s">
         <v>24</v>
@@ -10653,7 +10653,7 @@
         <v>1</v>
       </c>
       <c r="H99" s="7">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="I99" s="7" t="s">
         <v>24</v>
@@ -10695,7 +10695,7 @@
         <v>1</v>
       </c>
       <c r="H100" s="7">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="I100" s="7" t="s">
         <v>24</v>
@@ -10737,7 +10737,7 @@
         <v>1</v>
       </c>
       <c r="H101" s="7">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="I101" s="7" t="s">
         <v>24</v>
@@ -11409,7 +11409,7 @@
         <v>1</v>
       </c>
       <c r="H117" s="7">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="I117" s="7" t="s">
         <v>24</v>
@@ -11451,7 +11451,7 @@
         <v>1</v>
       </c>
       <c r="H118" s="7">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="I118" s="7" t="s">
         <v>24</v>
@@ -11493,7 +11493,7 @@
         <v>1</v>
       </c>
       <c r="H119" s="7">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="I119" s="7" t="s">
         <v>24</v>

--- a/LW Done.xlsx
+++ b/LW Done.xlsx
@@ -6524,8 +6524,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:N155"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A19" workbookViewId="0">
-      <selection activeCell="P39" sqref="P39"/>
+    <sheetView tabSelected="1" topLeftCell="A136" workbookViewId="0">
+      <selection activeCell="F19" sqref="F19:F27"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -7245,7 +7245,7 @@
         <v>51</v>
       </c>
       <c r="F18" s="3">
-        <v>1011</v>
+        <v>1004</v>
       </c>
       <c r="G18" s="3">
         <v>1</v>
@@ -7287,7 +7287,7 @@
         <v>51</v>
       </c>
       <c r="F19" s="7">
-        <v>1011</v>
+        <v>1004</v>
       </c>
       <c r="G19" s="7">
         <v>1</v>
@@ -7329,7 +7329,7 @@
         <v>51</v>
       </c>
       <c r="F20" s="7">
-        <v>1011</v>
+        <v>1004</v>
       </c>
       <c r="G20" s="7">
         <v>1</v>
@@ -7371,7 +7371,7 @@
         <v>51</v>
       </c>
       <c r="F21" s="7">
-        <v>1011</v>
+        <v>1004</v>
       </c>
       <c r="G21" s="7">
         <v>1</v>
@@ -7413,7 +7413,7 @@
         <v>51</v>
       </c>
       <c r="F22" s="7">
-        <v>1011</v>
+        <v>1004</v>
       </c>
       <c r="G22" s="7">
         <v>1</v>
@@ -7455,7 +7455,7 @@
         <v>51</v>
       </c>
       <c r="F23" s="7">
-        <v>1011</v>
+        <v>1004</v>
       </c>
       <c r="G23" s="7">
         <v>1</v>
@@ -7497,7 +7497,7 @@
         <v>51</v>
       </c>
       <c r="F24" s="7">
-        <v>1011</v>
+        <v>1004</v>
       </c>
       <c r="G24" s="7">
         <v>1</v>
@@ -7539,7 +7539,7 @@
         <v>51</v>
       </c>
       <c r="F25" s="7">
-        <v>1011</v>
+        <v>1004</v>
       </c>
       <c r="G25" s="7">
         <v>1</v>
@@ -7581,7 +7581,7 @@
         <v>51</v>
       </c>
       <c r="F26" s="7">
-        <v>1011</v>
+        <v>1004</v>
       </c>
       <c r="G26" s="7">
         <v>1</v>
@@ -7623,7 +7623,7 @@
         <v>51</v>
       </c>
       <c r="F27" s="7">
-        <v>1011</v>
+        <v>1004</v>
       </c>
       <c r="G27" s="7">
         <v>1</v>
